--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,37 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="region" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="region" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Продажи, руб</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Краснодарский край</t>
+  </si>
+  <si>
+    <t>Свердловская область</t>
+  </si>
+  <si>
+    <t>Республика Татарстан</t>
+  </si>
+  <si>
+    <t>Самарская область</t>
+  </si>
+  <si>
+    <t>Волгоградская область</t>
+  </si>
+  <si>
+    <t>Ростовская область</t>
+  </si>
+  <si>
+    <t>Нижегородская область</t>
+  </si>
+  <si>
+    <t>Воронежская область</t>
+  </si>
+  <si>
+    <t>Астраханская область</t>
+  </si>
+  <si>
+    <t>Ярославская область</t>
+  </si>
+  <si>
+    <t>Пермский край</t>
+  </si>
+  <si>
+    <t>Оренбургская область</t>
+  </si>
+  <si>
+    <t>Московская область</t>
+  </si>
+  <si>
+    <t>Саратовская область</t>
+  </si>
+  <si>
+    <t>Иркутская область</t>
+  </si>
+  <si>
+    <t>Новосибирская область</t>
+  </si>
+  <si>
+    <t>Удмуртия</t>
+  </si>
+  <si>
+    <t>Рязанская область</t>
+  </si>
+  <si>
+    <t>Башкортостан</t>
+  </si>
+  <si>
+    <t>Кировская область</t>
+  </si>
+  <si>
+    <t>Приморский край</t>
+  </si>
+  <si>
+    <t>Липецкая область</t>
+  </si>
+  <si>
+    <t>Ставропольский край</t>
+  </si>
+  <si>
+    <t>Пензенская область</t>
+  </si>
+  <si>
+    <t>Брянская область</t>
+  </si>
+  <si>
+    <t>Смоленская область</t>
+  </si>
+  <si>
+    <t>Орловская область</t>
+  </si>
+  <si>
+    <t>Забайкальский край</t>
+  </si>
+  <si>
+    <t>Тульская область</t>
+  </si>
+  <si>
+    <t>Ивановская область</t>
+  </si>
+  <si>
+    <t>Мурманская область</t>
+  </si>
+  <si>
+    <t>Мордовия</t>
+  </si>
+  <si>
+    <t>Кемеровская область</t>
+  </si>
+  <si>
+    <t>Вологодская область</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +168,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,500 +484,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Продажи, руб</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>15</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>225518291.15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>26</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>139774911.75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Краснодарский край</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>135039890.65</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Свердловская область</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>96379102.45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Республика Татарстан</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>71419275.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>25</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Самарская область</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>69754619.59999999</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Волгоградская область</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>56269200</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>23</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ростовская область</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>37385665</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>17</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Нижегородская область</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>29038429.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Воронежская область</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>25700072.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Астраханская область</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>25031190.25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>35</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ярославская область</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>25001494.9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
         <v>22</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Пермский край</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>23260649</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
         <v>20</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Оренбургская область</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>21584350.5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Московская область</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>18542589.9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>28</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Саратовская область</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>18366791.6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Иркутская область</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>14571922.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Новосибирская область</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>14205672.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>8</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Удмуртия</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>11488932</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>24</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Рязанская область</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>10528042.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>32</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Башкортостан</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>9673622.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Кировская область</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>9274900.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Приморский край</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>8663585.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Липецкая область</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>8312934</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
         <v>30</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Ставропольский край</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>8161513.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Пензенская область</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>6506587.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Брянская область</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>6391445</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Смоленская область</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>6213073.5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Орловская область</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>4860073</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
         <v>34</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Забайкальский край</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>3246205</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Тульская область</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>2567909</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
         <v>7</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Ивановская область</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
         <v>2291278</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
         <v>16</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Мурманская область</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <v>1169799</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Мордовия</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
         <v>863826.0000000002</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
         <v>11</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Кемеровская область</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
         <v>794405</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Вологодская область</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>607493.0000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>